--- a/EM_gates/data/em_master_data_final_final.xlsx
+++ b/EM_gates/data/em_master_data_final_final.xlsx
@@ -430,7 +430,7 @@
     <t>How are funds distributed, CTE regulation, and training \n postively affect Secondary Career and Technical Education?</t>
   </si>
   <si>
-    <t>Does the state ban stop and idenntify practices?</t>
+    <t>Does the state ban stop and identify practices?</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
   <dimension ref="A1:Y1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
